--- a/test-case1.xlsx
+++ b/test-case1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="60">
   <si>
     <t>Отправка формы по вакансии "Специалист отдела взыскания"</t>
   </si>
@@ -275,12 +275,6 @@
   </si>
   <si>
     <t>В момент ввода @ открывается дроп-даун лист с возможными видами почты (Например: логин@mail.ru, логин@yandex.ru)</t>
-  </si>
-  <si>
-    <t>Обязательность:</t>
-  </si>
-  <si>
-    <t>Валидация:</t>
   </si>
   <si>
     <r>
@@ -449,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -467,6 +461,42 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -476,45 +506,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -524,11 +524,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -826,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AO43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O7" workbookViewId="0">
-      <selection activeCell="W45" sqref="W45"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -841,10 +838,8 @@
   <sheetData>
     <row r="1" spans="1:28">
       <c r="A1" s="2"/>
-      <c r="B1" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -857,376 +852,374 @@
     </row>
     <row r="2" spans="1:28">
       <c r="A2" s="2"/>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="Q2" s="17" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="Q2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
     </row>
     <row r="3" spans="1:28">
       <c r="A3" s="2"/>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="19"/>
-      <c r="Q3" s="16" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="24"/>
+      <c r="Q3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
     </row>
     <row r="4" spans="1:28">
       <c r="A4" s="2"/>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="11" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="13"/>
-      <c r="Q4" s="17" t="s">
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="17"/>
+      <c r="Q4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17" t="s">
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
     </row>
     <row r="5" spans="1:28">
       <c r="A5" s="2"/>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="7" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="9"/>
-      <c r="Q5" s="15" t="s">
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="21"/>
+      <c r="Q5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15" t="s">
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="15"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
     </row>
     <row r="6" spans="1:28">
       <c r="A6" s="2"/>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="7" t="s">
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="9"/>
-      <c r="Q6" s="15" t="s">
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="21"/>
+      <c r="Q6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15" t="s">
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
     </row>
     <row r="7" spans="1:28">
       <c r="A7" s="2"/>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="7" t="s">
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="9"/>
-      <c r="Q7" s="15" t="s">
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="21"/>
+      <c r="Q7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15" t="s">
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="15"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
     </row>
     <row r="8" spans="1:28">
       <c r="A8" s="2"/>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="7" t="s">
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="9"/>
-      <c r="Q8" s="15" t="s">
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="21"/>
+      <c r="Q8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15" t="s">
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="15"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="2"/>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="7" t="s">
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="9"/>
-      <c r="Q9" s="15" t="s">
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="21"/>
+      <c r="Q9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15" t="s">
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="2"/>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="7" t="s">
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="9"/>
-      <c r="Q10" s="15" t="s">
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="21"/>
+      <c r="Q10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15" t="s">
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="15"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
     </row>
     <row r="11" spans="1:28">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="7" t="s">
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="9"/>
-      <c r="Q11" s="16" t="s">
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="21"/>
+      <c r="Q11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="16"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
     </row>
     <row r="12" spans="1:28">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="7" t="s">
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="9"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="21"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="R12" s="14"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
@@ -1239,43 +1232,41 @@
     </row>
     <row r="13" spans="1:28">
       <c r="A13" s="1"/>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
       <c r="O13" s="1"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="17" t="s">
+      <c r="Q13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
     </row>
     <row r="14" spans="1:28">
-      <c r="B14" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="14"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1288,287 +1279,287 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="16" t="s">
+      <c r="Q14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="16"/>
-      <c r="AB14" s="16"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
     </row>
     <row r="15" spans="1:28">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="13"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="17"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="17" t="s">
+      <c r="Q15" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17" t="s">
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="17"/>
-      <c r="AB15" s="17"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
     </row>
     <row r="16" spans="1:28">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="19"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="24"/>
       <c r="P16" s="2"/>
-      <c r="Q16" s="15" t="s">
+      <c r="Q16" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15" t="s">
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="15"/>
-      <c r="AB16" s="15"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
     </row>
     <row r="17" spans="2:38">
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="11" t="s">
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="13"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="17"/>
       <c r="P17" s="2"/>
-      <c r="Q17" s="15" t="s">
+      <c r="Q17" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15" t="s">
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="15"/>
-      <c r="AB17" s="15"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
     </row>
     <row r="18" spans="2:38">
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10" t="s">
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="15" t="s">
+      <c r="Q18" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15" t="s">
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="15"/>
-      <c r="AB18" s="15"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
     </row>
     <row r="19" spans="2:38">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10" t="s">
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="15" t="s">
+      <c r="Q19" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="15" t="s">
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="15"/>
-      <c r="AB19" s="15"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
     </row>
     <row r="20" spans="2:38">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-      <c r="Q20" s="15" t="s">
+      <c r="Q20" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="15"/>
-      <c r="X20" s="15" t="s">
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="15"/>
-      <c r="AB20" s="15"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="13"/>
     </row>
     <row r="21" spans="2:38">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10" t="s">
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
-      <c r="Q21" s="16" t="s">
+      <c r="Q21" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="16"/>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="16"/>
-      <c r="Z21" s="16"/>
-      <c r="AA21" s="16"/>
-      <c r="AB21" s="16"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9"/>
     </row>
     <row r="22" spans="2:38">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="10" t="s">
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
@@ -1583,178 +1574,178 @@
       <c r="AB22" s="2"/>
     </row>
     <row r="23" spans="2:38">
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10" t="s">
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="Q23" s="17" t="s">
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="Q23" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="17"/>
-      <c r="AA23" s="17"/>
-      <c r="AB23" s="17"/>
-      <c r="AC23" s="17"/>
-      <c r="AD23" s="17"/>
-      <c r="AE23" s="17"/>
-      <c r="AF23" s="17"/>
-      <c r="AG23" s="17"/>
-      <c r="AH23" s="17"/>
-      <c r="AI23" s="17"/>
-      <c r="AJ23" s="17"/>
-      <c r="AK23" s="17"/>
-      <c r="AL23" s="17"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="8"/>
+      <c r="AK23" s="8"/>
+      <c r="AL23" s="8"/>
     </row>
     <row r="24" spans="2:38">
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="7" t="s">
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="9"/>
-      <c r="Q24" s="16" t="s">
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="21"/>
+      <c r="Q24" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="16"/>
-      <c r="Y24" s="16"/>
-      <c r="Z24" s="16"/>
-      <c r="AA24" s="16"/>
-      <c r="AB24" s="16"/>
-      <c r="AC24" s="16"/>
-      <c r="AD24" s="16"/>
-      <c r="AE24" s="16"/>
-      <c r="AF24" s="16"/>
-      <c r="AG24" s="16"/>
-      <c r="AH24" s="16"/>
-      <c r="AI24" s="16"/>
-      <c r="AJ24" s="16"/>
-      <c r="AK24" s="16"/>
-      <c r="AL24" s="16"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="9"/>
+      <c r="AB24" s="9"/>
+      <c r="AC24" s="9"/>
+      <c r="AD24" s="9"/>
+      <c r="AE24" s="9"/>
+      <c r="AF24" s="9"/>
+      <c r="AG24" s="9"/>
+      <c r="AH24" s="9"/>
+      <c r="AI24" s="9"/>
+      <c r="AJ24" s="9"/>
+      <c r="AK24" s="9"/>
+      <c r="AL24" s="9"/>
     </row>
     <row r="25" spans="2:38">
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="7" t="s">
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="9"/>
-      <c r="Q25" s="17" t="s">
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="21"/>
+      <c r="Q25" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="17"/>
-      <c r="W25" s="17"/>
-      <c r="X25" s="17" t="s">
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="Y25" s="17"/>
-      <c r="Z25" s="17"/>
-      <c r="AA25" s="17"/>
-      <c r="AB25" s="17"/>
-      <c r="AC25" s="17"/>
-      <c r="AD25" s="17"/>
-      <c r="AE25" s="17"/>
-      <c r="AF25" s="17"/>
-      <c r="AG25" s="17"/>
-      <c r="AH25" s="17"/>
-      <c r="AI25" s="17"/>
-      <c r="AJ25" s="17"/>
-      <c r="AK25" s="17"/>
-      <c r="AL25" s="17"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="8"/>
+      <c r="AK25" s="8"/>
+      <c r="AL25" s="8"/>
     </row>
     <row r="26" spans="2:38">
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="Q26" s="15" t="s">
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="Q26" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="15"/>
-      <c r="U26" s="15"/>
-      <c r="V26" s="15"/>
-      <c r="W26" s="15"/>
-      <c r="X26" s="15" t="s">
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="Y26" s="15"/>
-      <c r="Z26" s="15"/>
-      <c r="AA26" s="15"/>
-      <c r="AB26" s="15"/>
-      <c r="AC26" s="15"/>
-      <c r="AD26" s="15"/>
-      <c r="AE26" s="15"/>
-      <c r="AF26" s="15"/>
-      <c r="AG26" s="15"/>
-      <c r="AH26" s="15"/>
-      <c r="AI26" s="15"/>
-      <c r="AJ26" s="15"/>
-      <c r="AK26" s="15"/>
-      <c r="AL26" s="15"/>
+      <c r="Y26" s="13"/>
+      <c r="Z26" s="13"/>
+      <c r="AA26" s="13"/>
+      <c r="AB26" s="13"/>
+      <c r="AC26" s="13"/>
+      <c r="AD26" s="13"/>
+      <c r="AE26" s="13"/>
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="13"/>
+      <c r="AH26" s="13"/>
+      <c r="AI26" s="13"/>
+      <c r="AJ26" s="13"/>
+      <c r="AK26" s="13"/>
+      <c r="AL26" s="13"/>
     </row>
     <row r="27" spans="2:38">
       <c r="B27" s="4"/>
@@ -1770,32 +1761,32 @@
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
-      <c r="Q27" s="15" t="s">
+      <c r="Q27" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="15"/>
-      <c r="V27" s="15"/>
-      <c r="W27" s="15"/>
-      <c r="X27" s="15" t="s">
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="Y27" s="15"/>
-      <c r="Z27" s="15"/>
-      <c r="AA27" s="15"/>
-      <c r="AB27" s="15"/>
-      <c r="AC27" s="15"/>
-      <c r="AD27" s="15"/>
-      <c r="AE27" s="15"/>
-      <c r="AF27" s="15"/>
-      <c r="AG27" s="15"/>
-      <c r="AH27" s="15"/>
-      <c r="AI27" s="15"/>
-      <c r="AJ27" s="15"/>
-      <c r="AK27" s="15"/>
-      <c r="AL27" s="15"/>
+      <c r="Y27" s="13"/>
+      <c r="Z27" s="13"/>
+      <c r="AA27" s="13"/>
+      <c r="AB27" s="13"/>
+      <c r="AC27" s="13"/>
+      <c r="AD27" s="13"/>
+      <c r="AE27" s="13"/>
+      <c r="AF27" s="13"/>
+      <c r="AG27" s="13"/>
+      <c r="AH27" s="13"/>
+      <c r="AI27" s="13"/>
+      <c r="AJ27" s="13"/>
+      <c r="AK27" s="13"/>
+      <c r="AL27" s="13"/>
     </row>
     <row r="28" spans="2:38">
       <c r="B28" s="5"/>
@@ -1811,32 +1802,32 @@
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
-      <c r="Q28" s="15" t="s">
+      <c r="Q28" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="15"/>
-      <c r="U28" s="15"/>
-      <c r="V28" s="15"/>
-      <c r="W28" s="15"/>
-      <c r="X28" s="15" t="s">
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="Y28" s="15"/>
-      <c r="Z28" s="15"/>
-      <c r="AA28" s="15"/>
-      <c r="AB28" s="15"/>
-      <c r="AC28" s="15"/>
-      <c r="AD28" s="15"/>
-      <c r="AE28" s="15"/>
-      <c r="AF28" s="15"/>
-      <c r="AG28" s="15"/>
-      <c r="AH28" s="15"/>
-      <c r="AI28" s="15"/>
-      <c r="AJ28" s="15"/>
-      <c r="AK28" s="15"/>
-      <c r="AL28" s="15"/>
+      <c r="Y28" s="13"/>
+      <c r="Z28" s="13"/>
+      <c r="AA28" s="13"/>
+      <c r="AB28" s="13"/>
+      <c r="AC28" s="13"/>
+      <c r="AD28" s="13"/>
+      <c r="AE28" s="13"/>
+      <c r="AF28" s="13"/>
+      <c r="AG28" s="13"/>
+      <c r="AH28" s="13"/>
+      <c r="AI28" s="13"/>
+      <c r="AJ28" s="13"/>
+      <c r="AK28" s="13"/>
+      <c r="AL28" s="13"/>
     </row>
     <row r="29" spans="2:38">
       <c r="B29" s="2"/>
@@ -1852,32 +1843,32 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
-      <c r="Q29" s="15" t="s">
+      <c r="Q29" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="R29" s="15"/>
-      <c r="S29" s="15"/>
-      <c r="T29" s="15"/>
-      <c r="U29" s="15"/>
-      <c r="V29" s="15"/>
-      <c r="W29" s="15"/>
-      <c r="X29" s="15" t="s">
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="Y29" s="15"/>
-      <c r="Z29" s="15"/>
-      <c r="AA29" s="15"/>
-      <c r="AB29" s="15"/>
-      <c r="AC29" s="15"/>
-      <c r="AD29" s="15"/>
-      <c r="AE29" s="15"/>
-      <c r="AF29" s="15"/>
-      <c r="AG29" s="15"/>
-      <c r="AH29" s="15"/>
-      <c r="AI29" s="15"/>
-      <c r="AJ29" s="15"/>
-      <c r="AK29" s="15"/>
-      <c r="AL29" s="15"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="13"/>
+      <c r="AC29" s="13"/>
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="13"/>
+      <c r="AF29" s="13"/>
+      <c r="AG29" s="13"/>
+      <c r="AH29" s="13"/>
+      <c r="AI29" s="13"/>
+      <c r="AJ29" s="13"/>
+      <c r="AK29" s="13"/>
+      <c r="AL29" s="13"/>
     </row>
     <row r="30" spans="2:38">
       <c r="B30" s="2"/>
@@ -1893,32 +1884,32 @@
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
-      <c r="Q30" s="15" t="s">
+      <c r="Q30" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="R30" s="15"/>
-      <c r="S30" s="15"/>
-      <c r="T30" s="15"/>
-      <c r="U30" s="15"/>
-      <c r="V30" s="15"/>
-      <c r="W30" s="15"/>
-      <c r="X30" s="15" t="s">
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="Y30" s="15"/>
-      <c r="Z30" s="15"/>
-      <c r="AA30" s="15"/>
-      <c r="AB30" s="15"/>
-      <c r="AC30" s="15"/>
-      <c r="AD30" s="15"/>
-      <c r="AE30" s="15"/>
-      <c r="AF30" s="15"/>
-      <c r="AG30" s="15"/>
-      <c r="AH30" s="15"/>
-      <c r="AI30" s="15"/>
-      <c r="AJ30" s="15"/>
-      <c r="AK30" s="15"/>
-      <c r="AL30" s="15"/>
+      <c r="Y30" s="13"/>
+      <c r="Z30" s="13"/>
+      <c r="AA30" s="13"/>
+      <c r="AB30" s="13"/>
+      <c r="AC30" s="13"/>
+      <c r="AD30" s="13"/>
+      <c r="AE30" s="13"/>
+      <c r="AF30" s="13"/>
+      <c r="AG30" s="13"/>
+      <c r="AH30" s="13"/>
+      <c r="AI30" s="13"/>
+      <c r="AJ30" s="13"/>
+      <c r="AK30" s="13"/>
+      <c r="AL30" s="13"/>
     </row>
     <row r="31" spans="2:38">
       <c r="B31" s="2"/>
@@ -1934,32 +1925,32 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
-      <c r="Q31" s="20" t="s">
+      <c r="Q31" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="R31" s="21"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="21"/>
-      <c r="V31" s="21"/>
-      <c r="W31" s="22"/>
-      <c r="X31" s="20" t="s">
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="Y31" s="21"/>
-      <c r="Z31" s="21"/>
-      <c r="AA31" s="21"/>
-      <c r="AB31" s="21"/>
-      <c r="AC31" s="21"/>
-      <c r="AD31" s="21"/>
-      <c r="AE31" s="21"/>
-      <c r="AF31" s="21"/>
-      <c r="AG31" s="21"/>
-      <c r="AH31" s="21"/>
-      <c r="AI31" s="21"/>
-      <c r="AJ31" s="21"/>
-      <c r="AK31" s="21"/>
-      <c r="AL31" s="22"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="11"/>
+      <c r="AD31" s="11"/>
+      <c r="AE31" s="11"/>
+      <c r="AF31" s="11"/>
+      <c r="AG31" s="11"/>
+      <c r="AH31" s="11"/>
+      <c r="AI31" s="11"/>
+      <c r="AJ31" s="11"/>
+      <c r="AK31" s="11"/>
+      <c r="AL31" s="12"/>
     </row>
     <row r="32" spans="2:38">
       <c r="B32" s="2"/>
@@ -1975,30 +1966,30 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
-      <c r="Q32" s="16" t="s">
+      <c r="Q32" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="R32" s="16"/>
-      <c r="S32" s="16"/>
-      <c r="T32" s="16"/>
-      <c r="U32" s="16"/>
-      <c r="V32" s="16"/>
-      <c r="W32" s="16"/>
-      <c r="X32" s="16"/>
-      <c r="Y32" s="16"/>
-      <c r="Z32" s="16"/>
-      <c r="AA32" s="16"/>
-      <c r="AB32" s="16"/>
-      <c r="AC32" s="16"/>
-      <c r="AD32" s="16"/>
-      <c r="AE32" s="16"/>
-      <c r="AF32" s="16"/>
-      <c r="AG32" s="16"/>
-      <c r="AH32" s="16"/>
-      <c r="AI32" s="16"/>
-      <c r="AJ32" s="16"/>
-      <c r="AK32" s="16"/>
-      <c r="AL32" s="16"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="9"/>
+      <c r="AB32" s="9"/>
+      <c r="AC32" s="9"/>
+      <c r="AD32" s="9"/>
+      <c r="AE32" s="9"/>
+      <c r="AF32" s="9"/>
+      <c r="AG32" s="9"/>
+      <c r="AH32" s="9"/>
+      <c r="AI32" s="9"/>
+      <c r="AJ32" s="9"/>
+      <c r="AK32" s="9"/>
+      <c r="AL32" s="9"/>
     </row>
     <row r="33" spans="2:41">
       <c r="B33" s="2"/>
@@ -2029,33 +2020,33 @@
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
-      <c r="Q34" s="17" t="s">
+      <c r="Q34" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="R34" s="17"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="17"/>
-      <c r="U34" s="17"/>
-      <c r="V34" s="17"/>
-      <c r="W34" s="17"/>
-      <c r="X34" s="17"/>
-      <c r="Y34" s="17"/>
-      <c r="Z34" s="17"/>
-      <c r="AA34" s="17"/>
-      <c r="AB34" s="17"/>
-      <c r="AC34" s="17"/>
-      <c r="AD34" s="17"/>
-      <c r="AE34" s="17"/>
-      <c r="AF34" s="17"/>
-      <c r="AG34" s="17"/>
-      <c r="AH34" s="17"/>
-      <c r="AI34" s="17"/>
-      <c r="AJ34" s="17"/>
-      <c r="AK34" s="17"/>
-      <c r="AL34" s="17"/>
-      <c r="AM34" s="17"/>
-      <c r="AN34" s="17"/>
-      <c r="AO34" s="17"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="8"/>
+      <c r="AD34" s="8"/>
+      <c r="AE34" s="8"/>
+      <c r="AF34" s="8"/>
+      <c r="AG34" s="8"/>
+      <c r="AH34" s="8"/>
+      <c r="AI34" s="8"/>
+      <c r="AJ34" s="8"/>
+      <c r="AK34" s="8"/>
+      <c r="AL34" s="8"/>
+      <c r="AM34" s="8"/>
+      <c r="AN34" s="8"/>
+      <c r="AO34" s="8"/>
     </row>
     <row r="35" spans="2:41">
       <c r="B35" s="2"/>
@@ -2071,33 +2062,33 @@
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
-      <c r="Q35" s="16" t="s">
+      <c r="Q35" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="R35" s="16"/>
-      <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
-      <c r="U35" s="16"/>
-      <c r="V35" s="16"/>
-      <c r="W35" s="16"/>
-      <c r="X35" s="16"/>
-      <c r="Y35" s="16"/>
-      <c r="Z35" s="16"/>
-      <c r="AA35" s="16"/>
-      <c r="AB35" s="16"/>
-      <c r="AC35" s="16"/>
-      <c r="AD35" s="16"/>
-      <c r="AE35" s="16"/>
-      <c r="AF35" s="16"/>
-      <c r="AG35" s="16"/>
-      <c r="AH35" s="16"/>
-      <c r="AI35" s="16"/>
-      <c r="AJ35" s="16"/>
-      <c r="AK35" s="16"/>
-      <c r="AL35" s="16"/>
-      <c r="AM35" s="16"/>
-      <c r="AN35" s="16"/>
-      <c r="AO35" s="16"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="9"/>
+      <c r="AA35" s="9"/>
+      <c r="AB35" s="9"/>
+      <c r="AC35" s="9"/>
+      <c r="AD35" s="9"/>
+      <c r="AE35" s="9"/>
+      <c r="AF35" s="9"/>
+      <c r="AG35" s="9"/>
+      <c r="AH35" s="9"/>
+      <c r="AI35" s="9"/>
+      <c r="AJ35" s="9"/>
+      <c r="AK35" s="9"/>
+      <c r="AL35" s="9"/>
+      <c r="AM35" s="9"/>
+      <c r="AN35" s="9"/>
+      <c r="AO35" s="9"/>
     </row>
     <row r="36" spans="2:41">
       <c r="B36" s="2"/>
@@ -2113,35 +2104,35 @@
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
-      <c r="Q36" s="23" t="s">
+      <c r="Q36" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="R36" s="24"/>
-      <c r="S36" s="24"/>
-      <c r="T36" s="24"/>
-      <c r="U36" s="24"/>
-      <c r="V36" s="25"/>
-      <c r="W36" s="17" t="s">
+      <c r="R36" s="26"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="27"/>
+      <c r="W36" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="X36" s="17"/>
-      <c r="Y36" s="17"/>
-      <c r="Z36" s="17"/>
-      <c r="AA36" s="17"/>
-      <c r="AB36" s="17"/>
-      <c r="AC36" s="17"/>
-      <c r="AD36" s="17"/>
-      <c r="AE36" s="17"/>
-      <c r="AF36" s="17"/>
-      <c r="AG36" s="17"/>
-      <c r="AH36" s="17"/>
-      <c r="AI36" s="17"/>
-      <c r="AJ36" s="17"/>
-      <c r="AK36" s="17"/>
-      <c r="AL36" s="17"/>
-      <c r="AM36" s="17"/>
-      <c r="AN36" s="17"/>
-      <c r="AO36" s="17"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="8"/>
+      <c r="AD36" s="8"/>
+      <c r="AE36" s="8"/>
+      <c r="AF36" s="8"/>
+      <c r="AG36" s="8"/>
+      <c r="AH36" s="8"/>
+      <c r="AI36" s="8"/>
+      <c r="AJ36" s="8"/>
+      <c r="AK36" s="8"/>
+      <c r="AL36" s="8"/>
+      <c r="AM36" s="8"/>
+      <c r="AN36" s="8"/>
+      <c r="AO36" s="8"/>
     </row>
     <row r="37" spans="2:41">
       <c r="B37" s="6"/>
@@ -2157,188 +2148,188 @@
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
-      <c r="Q37" s="20" t="s">
+      <c r="Q37" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="R37" s="21"/>
-      <c r="S37" s="21"/>
-      <c r="T37" s="21"/>
-      <c r="U37" s="21"/>
-      <c r="V37" s="22"/>
-      <c r="W37" s="15" t="s">
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="X37" s="15"/>
-      <c r="Y37" s="15"/>
-      <c r="Z37" s="15"/>
-      <c r="AA37" s="15"/>
-      <c r="AB37" s="15"/>
-      <c r="AC37" s="15"/>
-      <c r="AD37" s="15"/>
-      <c r="AE37" s="15"/>
-      <c r="AF37" s="15"/>
-      <c r="AG37" s="15"/>
-      <c r="AH37" s="15"/>
-      <c r="AI37" s="15"/>
-      <c r="AJ37" s="15"/>
-      <c r="AK37" s="15"/>
-      <c r="AL37" s="15"/>
-      <c r="AM37" s="15"/>
-      <c r="AN37" s="15"/>
-      <c r="AO37" s="15"/>
+      <c r="X37" s="13"/>
+      <c r="Y37" s="13"/>
+      <c r="Z37" s="13"/>
+      <c r="AA37" s="13"/>
+      <c r="AB37" s="13"/>
+      <c r="AC37" s="13"/>
+      <c r="AD37" s="13"/>
+      <c r="AE37" s="13"/>
+      <c r="AF37" s="13"/>
+      <c r="AG37" s="13"/>
+      <c r="AH37" s="13"/>
+      <c r="AI37" s="13"/>
+      <c r="AJ37" s="13"/>
+      <c r="AK37" s="13"/>
+      <c r="AL37" s="13"/>
+      <c r="AM37" s="13"/>
+      <c r="AN37" s="13"/>
+      <c r="AO37" s="13"/>
     </row>
     <row r="38" spans="2:41">
-      <c r="Q38" s="20" t="s">
+      <c r="Q38" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="R38" s="21"/>
-      <c r="S38" s="21"/>
-      <c r="T38" s="21"/>
-      <c r="U38" s="21"/>
-      <c r="V38" s="22"/>
-      <c r="W38" s="15" t="s">
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="X38" s="15"/>
-      <c r="Y38" s="15"/>
-      <c r="Z38" s="15"/>
-      <c r="AA38" s="15"/>
-      <c r="AB38" s="15"/>
-      <c r="AC38" s="15"/>
-      <c r="AD38" s="15"/>
-      <c r="AE38" s="15"/>
-      <c r="AF38" s="15"/>
-      <c r="AG38" s="15"/>
-      <c r="AH38" s="15"/>
-      <c r="AI38" s="15"/>
-      <c r="AJ38" s="15"/>
-      <c r="AK38" s="15"/>
-      <c r="AL38" s="15"/>
-      <c r="AM38" s="15"/>
-      <c r="AN38" s="15"/>
-      <c r="AO38" s="15"/>
+      <c r="X38" s="13"/>
+      <c r="Y38" s="13"/>
+      <c r="Z38" s="13"/>
+      <c r="AA38" s="13"/>
+      <c r="AB38" s="13"/>
+      <c r="AC38" s="13"/>
+      <c r="AD38" s="13"/>
+      <c r="AE38" s="13"/>
+      <c r="AF38" s="13"/>
+      <c r="AG38" s="13"/>
+      <c r="AH38" s="13"/>
+      <c r="AI38" s="13"/>
+      <c r="AJ38" s="13"/>
+      <c r="AK38" s="13"/>
+      <c r="AL38" s="13"/>
+      <c r="AM38" s="13"/>
+      <c r="AN38" s="13"/>
+      <c r="AO38" s="13"/>
     </row>
     <row r="39" spans="2:41">
-      <c r="Q39" s="20" t="s">
+      <c r="Q39" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="R39" s="21"/>
-      <c r="S39" s="21"/>
-      <c r="T39" s="21"/>
-      <c r="U39" s="21"/>
-      <c r="V39" s="22"/>
-      <c r="W39" s="15" t="s">
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="X39" s="15"/>
-      <c r="Y39" s="15"/>
-      <c r="Z39" s="15"/>
-      <c r="AA39" s="15"/>
-      <c r="AB39" s="15"/>
-      <c r="AC39" s="15"/>
-      <c r="AD39" s="15"/>
-      <c r="AE39" s="15"/>
-      <c r="AF39" s="15"/>
-      <c r="AG39" s="15"/>
-      <c r="AH39" s="15"/>
-      <c r="AI39" s="15"/>
-      <c r="AJ39" s="15"/>
-      <c r="AK39" s="15"/>
-      <c r="AL39" s="15"/>
-      <c r="AM39" s="15"/>
-      <c r="AN39" s="15"/>
-      <c r="AO39" s="15"/>
+      <c r="X39" s="13"/>
+      <c r="Y39" s="13"/>
+      <c r="Z39" s="13"/>
+      <c r="AA39" s="13"/>
+      <c r="AB39" s="13"/>
+      <c r="AC39" s="13"/>
+      <c r="AD39" s="13"/>
+      <c r="AE39" s="13"/>
+      <c r="AF39" s="13"/>
+      <c r="AG39" s="13"/>
+      <c r="AH39" s="13"/>
+      <c r="AI39" s="13"/>
+      <c r="AJ39" s="13"/>
+      <c r="AK39" s="13"/>
+      <c r="AL39" s="13"/>
+      <c r="AM39" s="13"/>
+      <c r="AN39" s="13"/>
+      <c r="AO39" s="13"/>
     </row>
     <row r="40" spans="2:41">
-      <c r="Q40" s="20" t="s">
+      <c r="Q40" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="R40" s="21"/>
-      <c r="S40" s="21"/>
-      <c r="T40" s="21"/>
-      <c r="U40" s="21"/>
-      <c r="V40" s="22"/>
-      <c r="W40" s="15" t="s">
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="X40" s="15"/>
-      <c r="Y40" s="15"/>
-      <c r="Z40" s="15"/>
-      <c r="AA40" s="15"/>
-      <c r="AB40" s="15"/>
-      <c r="AC40" s="15"/>
-      <c r="AD40" s="15"/>
-      <c r="AE40" s="15"/>
-      <c r="AF40" s="15"/>
-      <c r="AG40" s="15"/>
-      <c r="AH40" s="15"/>
-      <c r="AI40" s="15"/>
-      <c r="AJ40" s="15"/>
-      <c r="AK40" s="15"/>
-      <c r="AL40" s="15"/>
-      <c r="AM40" s="15"/>
-      <c r="AN40" s="15"/>
-      <c r="AO40" s="15"/>
+      <c r="X40" s="13"/>
+      <c r="Y40" s="13"/>
+      <c r="Z40" s="13"/>
+      <c r="AA40" s="13"/>
+      <c r="AB40" s="13"/>
+      <c r="AC40" s="13"/>
+      <c r="AD40" s="13"/>
+      <c r="AE40" s="13"/>
+      <c r="AF40" s="13"/>
+      <c r="AG40" s="13"/>
+      <c r="AH40" s="13"/>
+      <c r="AI40" s="13"/>
+      <c r="AJ40" s="13"/>
+      <c r="AK40" s="13"/>
+      <c r="AL40" s="13"/>
+      <c r="AM40" s="13"/>
+      <c r="AN40" s="13"/>
+      <c r="AO40" s="13"/>
     </row>
     <row r="41" spans="2:41">
-      <c r="Q41" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="R41" s="21"/>
-      <c r="S41" s="21"/>
-      <c r="T41" s="21"/>
-      <c r="U41" s="21"/>
-      <c r="V41" s="22"/>
-      <c r="W41" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="X41" s="21"/>
-      <c r="Y41" s="21"/>
-      <c r="Z41" s="21"/>
-      <c r="AA41" s="21"/>
-      <c r="AB41" s="21"/>
-      <c r="AC41" s="21"/>
-      <c r="AD41" s="21"/>
-      <c r="AE41" s="21"/>
-      <c r="AF41" s="21"/>
-      <c r="AG41" s="21"/>
-      <c r="AH41" s="21"/>
-      <c r="AI41" s="21"/>
-      <c r="AJ41" s="21"/>
-      <c r="AK41" s="21"/>
-      <c r="AL41" s="21"/>
-      <c r="AM41" s="21"/>
-      <c r="AN41" s="21"/>
-      <c r="AO41" s="22"/>
+      <c r="Q41" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="11"/>
+      <c r="AA41" s="11"/>
+      <c r="AB41" s="11"/>
+      <c r="AC41" s="11"/>
+      <c r="AD41" s="11"/>
+      <c r="AE41" s="11"/>
+      <c r="AF41" s="11"/>
+      <c r="AG41" s="11"/>
+      <c r="AH41" s="11"/>
+      <c r="AI41" s="11"/>
+      <c r="AJ41" s="11"/>
+      <c r="AK41" s="11"/>
+      <c r="AL41" s="11"/>
+      <c r="AM41" s="11"/>
+      <c r="AN41" s="11"/>
+      <c r="AO41" s="12"/>
     </row>
     <row r="42" spans="2:41">
-      <c r="Q42" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="R42" s="16"/>
-      <c r="S42" s="16"/>
-      <c r="T42" s="16"/>
-      <c r="U42" s="16"/>
-      <c r="V42" s="16"/>
-      <c r="W42" s="16"/>
-      <c r="X42" s="16"/>
-      <c r="Y42" s="16"/>
-      <c r="Z42" s="16"/>
-      <c r="AA42" s="16"/>
-      <c r="AB42" s="16"/>
-      <c r="AC42" s="16"/>
-      <c r="AD42" s="16"/>
-      <c r="AE42" s="16"/>
-      <c r="AF42" s="16"/>
-      <c r="AG42" s="16"/>
-      <c r="AH42" s="16"/>
-      <c r="AI42" s="16"/>
-      <c r="AJ42" s="16"/>
-      <c r="AK42" s="16"/>
-      <c r="AL42" s="16"/>
-      <c r="AM42" s="16"/>
-      <c r="AN42" s="16"/>
-      <c r="AO42" s="16"/>
+      <c r="Q42" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="9"/>
+      <c r="X42" s="9"/>
+      <c r="Y42" s="9"/>
+      <c r="Z42" s="9"/>
+      <c r="AA42" s="9"/>
+      <c r="AB42" s="9"/>
+      <c r="AC42" s="9"/>
+      <c r="AD42" s="9"/>
+      <c r="AE42" s="9"/>
+      <c r="AF42" s="9"/>
+      <c r="AG42" s="9"/>
+      <c r="AH42" s="9"/>
+      <c r="AI42" s="9"/>
+      <c r="AJ42" s="9"/>
+      <c r="AK42" s="9"/>
+      <c r="AL42" s="9"/>
+      <c r="AM42" s="9"/>
+      <c r="AN42" s="9"/>
+      <c r="AO42" s="9"/>
     </row>
     <row r="43" spans="2:41">
       <c r="Q43" s="4"/>
@@ -2368,70 +2359,18 @@
       <c r="AO43" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="109">
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="Q42:AO42"/>
-    <mergeCell ref="Q41:V41"/>
-    <mergeCell ref="W41:AO41"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="Q3:AB3"/>
-    <mergeCell ref="Q4:W4"/>
-    <mergeCell ref="X4:AB4"/>
-    <mergeCell ref="Q5:W5"/>
-    <mergeCell ref="X5:AB5"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="I18:N18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="I19:N19"/>
-    <mergeCell ref="Q18:W18"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="I17:N17"/>
-    <mergeCell ref="Q19:W19"/>
-    <mergeCell ref="B13:N13"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="X17:AB17"/>
-    <mergeCell ref="X18:AB18"/>
-    <mergeCell ref="X19:AB19"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="Q9:W9"/>
-    <mergeCell ref="X9:AB9"/>
-    <mergeCell ref="Q10:W10"/>
-    <mergeCell ref="X10:AB10"/>
-    <mergeCell ref="Q11:AB11"/>
-    <mergeCell ref="Q6:W6"/>
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="Q7:W7"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="Q8:W8"/>
-    <mergeCell ref="X8:AB8"/>
-    <mergeCell ref="I7:N7"/>
-    <mergeCell ref="I8:N8"/>
-    <mergeCell ref="I9:N9"/>
-    <mergeCell ref="I10:N10"/>
-    <mergeCell ref="I20:N20"/>
-    <mergeCell ref="I11:N11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="I12:N12"/>
-    <mergeCell ref="B16:N16"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="Q16:W16"/>
-    <mergeCell ref="X16:AB16"/>
-    <mergeCell ref="Q17:W17"/>
-    <mergeCell ref="B26:N26"/>
-    <mergeCell ref="I22:N22"/>
-    <mergeCell ref="I23:N23"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="I21:N21"/>
-    <mergeCell ref="Q20:W20"/>
+  <mergeCells count="106">
+    <mergeCell ref="W40:AO40"/>
+    <mergeCell ref="Q34:AO34"/>
+    <mergeCell ref="Q35:AO35"/>
+    <mergeCell ref="W36:AO36"/>
+    <mergeCell ref="Q28:W28"/>
+    <mergeCell ref="Q29:W29"/>
+    <mergeCell ref="Q30:W30"/>
+    <mergeCell ref="X30:AL30"/>
+    <mergeCell ref="Q25:W25"/>
+    <mergeCell ref="Q26:W26"/>
+    <mergeCell ref="Q27:W27"/>
     <mergeCell ref="B3:N3"/>
     <mergeCell ref="I4:N4"/>
     <mergeCell ref="I5:N5"/>
@@ -2456,28 +2395,77 @@
     <mergeCell ref="X28:AL28"/>
     <mergeCell ref="X29:AL29"/>
     <mergeCell ref="I24:N24"/>
+    <mergeCell ref="B26:N26"/>
+    <mergeCell ref="I22:N22"/>
+    <mergeCell ref="I23:N23"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="Q20:W20"/>
     <mergeCell ref="B25:H25"/>
     <mergeCell ref="I25:N25"/>
+    <mergeCell ref="Q21:AB21"/>
+    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="I11:N11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="B16:N16"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="Q16:W16"/>
+    <mergeCell ref="X16:AB16"/>
+    <mergeCell ref="Q17:W17"/>
     <mergeCell ref="B15:N15"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="W40:AO40"/>
-    <mergeCell ref="Q34:AO34"/>
-    <mergeCell ref="Q35:AO35"/>
-    <mergeCell ref="W36:AO36"/>
-    <mergeCell ref="Q28:W28"/>
-    <mergeCell ref="Q29:W29"/>
-    <mergeCell ref="Q30:W30"/>
-    <mergeCell ref="X30:AL30"/>
-    <mergeCell ref="Q25:W25"/>
-    <mergeCell ref="Q26:W26"/>
-    <mergeCell ref="Q27:W27"/>
     <mergeCell ref="X20:AB20"/>
-    <mergeCell ref="Q21:AB21"/>
     <mergeCell ref="Q13:AB13"/>
     <mergeCell ref="Q14:AB14"/>
     <mergeCell ref="Q15:W15"/>
     <mergeCell ref="X15:AB15"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="X17:AB17"/>
+    <mergeCell ref="X18:AB18"/>
+    <mergeCell ref="X19:AB19"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="Q9:W9"/>
+    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="Q10:W10"/>
+    <mergeCell ref="X10:AB10"/>
+    <mergeCell ref="Q11:AB11"/>
+    <mergeCell ref="Q6:W6"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="Q7:W7"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="Q8:W8"/>
+    <mergeCell ref="X8:AB8"/>
+    <mergeCell ref="I7:N7"/>
+    <mergeCell ref="I8:N8"/>
+    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="I10:N10"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="Q42:AO42"/>
+    <mergeCell ref="Q41:V41"/>
+    <mergeCell ref="W41:AO41"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="Q3:AB3"/>
+    <mergeCell ref="Q4:W4"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="Q5:W5"/>
+    <mergeCell ref="X5:AB5"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="I18:N18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="I19:N19"/>
+    <mergeCell ref="Q18:W18"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="I17:N17"/>
+    <mergeCell ref="Q19:W19"/>
+    <mergeCell ref="B13:N13"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
